--- a/data/period.xlsx
+++ b/data/period.xlsx
@@ -563,7 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -615,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -666,12 +666,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -990,31 +993,31 @@
     <col min="6" max="6" style="17" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="19" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
@@ -1054,7 +1057,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1129,7 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="49.5">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1180,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1282,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1333,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1384,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1588,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1639,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1687,7 +1690,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +1741,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
